--- a/input_data/admin_data/URY/gpinter_URY_2013.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2013.xlsx
@@ -2156,10 +2156,10 @@
         <v>0.61406313586419392</v>
       </c>
       <c r="F49">
-        <v>0.60842392884134644</v>
+        <v>0.60839486076390903</v>
       </c>
       <c r="G49">
-        <v>0.2280390674960758</v>
+        <v>0.22806813557351319</v>
       </c>
       <c r="H49">
         <v>0.085460147665833402</v>
@@ -2206,10 +2206,10 @@
         <v>0.61995290834568761</v>
       </c>
       <c r="F50">
-        <v>0.55806517252405452</v>
+        <v>0.55809424144646957</v>
       </c>
       <c r="G50">
-        <v>0.26130054358884919</v>
+        <v>0.26127147466643408</v>
       </c>
       <c r="H50">
         <v>0.14110054940263361</v>
@@ -2256,10 +2256,10 @@
         <v>0.61981861519679082</v>
       </c>
       <c r="F51">
-        <v>0.52886460089529674</v>
+        <v>0.52889366897273415</v>
       </c>
       <c r="G51">
-        <v>0.26085692692285328</v>
+        <v>0.26082785884541598</v>
       </c>
       <c r="H51">
         <v>0.178972152781815</v>
@@ -2300,16 +2300,16 @@
         <v>25144.441049882182</v>
       </c>
       <c r="D52">
-        <v>0.40387186791465612</v>
+        <v>0.40390093599209348</v>
       </c>
       <c r="E52">
-        <v>0.59612813208534388</v>
+        <v>0.59609906400790647</v>
       </c>
       <c r="F52">
-        <v>0.54011394686355441</v>
+        <v>0.54008487878611711</v>
       </c>
       <c r="G52">
-        <v>0.27443171908609959</v>
+        <v>0.274460787163537</v>
       </c>
       <c r="H52">
         <v>0.15467124004418351</v>
@@ -2350,10 +2350,10 @@
         <v>33107.206469402227</v>
       </c>
       <c r="D53">
-        <v>0.36978576204180108</v>
+        <v>0.36975669311938608</v>
       </c>
       <c r="E53">
-        <v>0.63021423795819886</v>
+        <v>0.63024330688061392</v>
       </c>
       <c r="F53">
         <v>0.48893927502107498</v>
@@ -2400,10 +2400,10 @@
         <v>40967.734998487547</v>
       </c>
       <c r="D54">
-        <v>0.40608104179989529</v>
+        <v>0.4061101098773327</v>
       </c>
       <c r="E54">
-        <v>0.59391895820010465</v>
+        <v>0.59388989012266724</v>
       </c>
       <c r="F54">
         <v>0.49953491076100232</v>
@@ -2450,10 +2450,10 @@
         <v>48931.39797217014</v>
       </c>
       <c r="D55">
-        <v>0.39022121449957847</v>
+        <v>0.39019214557716347</v>
       </c>
       <c r="E55">
-        <v>0.60977878550042153</v>
+        <v>0.60980785442283647</v>
       </c>
       <c r="F55">
         <v>0.49577047178861078</v>
@@ -2500,10 +2500,10 @@
         <v>56745.498353565927</v>
       </c>
       <c r="D56">
-        <v>0.38134410790070339</v>
+        <v>0.38131503982326609</v>
       </c>
       <c r="E56">
-        <v>0.61865589209929661</v>
+        <v>0.61868496017673391</v>
       </c>
       <c r="F56">
         <v>0.47584442764955531</v>
@@ -2550,19 +2550,19 @@
         <v>64543.331003618172</v>
       </c>
       <c r="D57">
-        <v>0.40806953286241682</v>
+        <v>0.40809860178483182</v>
       </c>
       <c r="E57">
-        <v>0.59193046713758313</v>
+        <v>0.59190139821516818</v>
       </c>
       <c r="F57">
-        <v>0.48966599808145111</v>
+        <v>0.48963692915903612</v>
       </c>
       <c r="G57">
-        <v>0.29019505246940502</v>
+        <v>0.29025319031423508</v>
       </c>
       <c r="H57">
-        <v>0.19955815237929131</v>
+        <v>0.19952908345687631</v>
       </c>
       <c r="I57">
         <v>0.020580797069852601</v>
@@ -2600,31 +2600,31 @@
         <v>71667.542447341359</v>
       </c>
       <c r="D58">
-        <v>0.41576071158653571</v>
+        <v>0.41686529852915533</v>
       </c>
       <c r="E58">
-        <v>0.5842392884134644</v>
+        <v>0.58313470147084479</v>
       </c>
       <c r="F58">
-        <v>0.33262601011569087</v>
+        <v>0.33338178012906228</v>
       </c>
       <c r="G58">
-        <v>0.24396837393174819</v>
+        <v>0.24402651008662291</v>
       </c>
       <c r="H58">
-        <v>0.41169118074530547</v>
+        <v>0.41087727457705953</v>
       </c>
       <c r="I58">
         <v>0.011714435207255401</v>
       </c>
       <c r="J58">
-        <v>0.41795178905021679</v>
+        <v>0.41792210346989711</v>
       </c>
       <c r="K58">
         <v>0.0120784241000819</v>
       </c>
       <c r="L58">
-        <v>0.55597917905879235</v>
+        <v>0.55600886463911203</v>
       </c>
       <c r="M58">
         <v>0.013990607784125799</v>
@@ -2650,31 +2650,31 @@
         <v>73608.357518276549</v>
       </c>
       <c r="D59">
-        <v>0.35593860822045231</v>
+        <v>0.35422359165164818</v>
       </c>
       <c r="E59">
-        <v>0.64406139177954769</v>
+        <v>0.64577640834835182</v>
       </c>
       <c r="F59">
-        <v>0.079268647171676102</v>
+        <v>0.078687285622928899</v>
       </c>
       <c r="G59">
-        <v>0.1126678681472007</v>
+        <v>0.1142084762513807</v>
       </c>
       <c r="H59">
-        <v>0.80637753618975638</v>
+        <v>0.8054182896343236</v>
       </c>
       <c r="I59">
         <v>0.0016859484913667999</v>
       </c>
       <c r="J59">
-        <v>0.049629057320875997</v>
+        <v>0.049657960188150503</v>
       </c>
       <c r="K59">
         <v>0.0010889579563044</v>
       </c>
       <c r="L59">
-        <v>0.94751515286298293</v>
+        <v>0.94748624999570852</v>
       </c>
       <c r="M59">
         <v>0.0017668318522802999</v>
@@ -2700,19 +2700,19 @@
         <v>73776</v>
       </c>
       <c r="D60">
-        <v>0.32600796488474171</v>
+        <v>0.32685096363477811</v>
       </c>
       <c r="E60">
-        <v>0.67399203511525829</v>
+        <v>0.67314903636522194</v>
       </c>
       <c r="F60">
-        <v>0.0024999273276939999</v>
+        <v>0.0023545827156187002</v>
       </c>
       <c r="G60">
-        <v>0.027470131682218499</v>
+        <v>0.025871340949390999</v>
       </c>
       <c r="H60">
-        <v>0.96982645853318217</v>
+        <v>0.97157059387808498</v>
       </c>
       <c r="I60">
         <v>0.0002034824569053</v>
@@ -2750,19 +2750,19 @@
         <v>74926.52425549386</v>
       </c>
       <c r="D61">
-        <v>0.48029184349747112</v>
+        <v>0.48008836695540957</v>
       </c>
       <c r="E61">
-        <v>0.519708156502529</v>
+        <v>0.51991163304459043</v>
       </c>
       <c r="F61">
-        <v>0.30376140922039419</v>
+        <v>0.30341259229114592</v>
       </c>
       <c r="G61">
-        <v>0.34582291727225162</v>
+        <v>0.34535782803325388</v>
       </c>
       <c r="H61">
-        <v>0.34733445729899431</v>
+        <v>0.34814836346724032</v>
       </c>
       <c r="I61">
         <v>0.0030812162083600002</v>
@@ -2800,31 +2800,31 @@
         <v>77484.503820065191</v>
       </c>
       <c r="D62">
-        <v>0.43123746402720847</v>
+        <v>0.43202232493241483</v>
       </c>
       <c r="E62">
-        <v>0.56876253597279147</v>
+        <v>0.56797767506758523</v>
       </c>
       <c r="F62">
-        <v>0.3156594285049853</v>
+        <v>0.31600825557396589</v>
       </c>
       <c r="G62">
-        <v>0.20043022005174271</v>
+        <v>0.20083718496555331</v>
       </c>
       <c r="H62">
-        <v>0.47251533385657402</v>
+        <v>0.47175954187378272</v>
       </c>
       <c r="I62">
         <v>0.0113950175866981</v>
       </c>
       <c r="J62">
-        <v>0.38188962672037441</v>
+        <v>0.38191950616996251</v>
       </c>
       <c r="K62">
         <v>0.0109102039371695</v>
       </c>
       <c r="L62">
-        <v>0.59445711748030605</v>
+        <v>0.59442723803071806</v>
       </c>
       <c r="M62">
         <v>0.012743051875456299</v>
@@ -2850,31 +2850,31 @@
         <v>82037.093601253204</v>
       </c>
       <c r="D63">
-        <v>0.39741875472356258</v>
+        <v>0.39657578047787923</v>
       </c>
       <c r="E63">
-        <v>0.60258124527643742</v>
+        <v>0.60342421952212089</v>
       </c>
       <c r="F63">
         <v>0.32003953258531481</v>
       </c>
       <c r="G63">
-        <v>0.1969362246381024</v>
+        <v>0.1969071565606651</v>
       </c>
       <c r="H63">
-        <v>0.46892622521946398</v>
+        <v>0.46895529329690128</v>
       </c>
       <c r="I63">
         <v>0.0140980175571188</v>
       </c>
       <c r="J63">
-        <v>0.47953278987265452</v>
+        <v>0.47950456938207059</v>
       </c>
       <c r="K63">
         <v>0.013167210794909</v>
       </c>
       <c r="L63">
-        <v>0.49100112102846349</v>
+        <v>0.49102934151904731</v>
       </c>
       <c r="M63">
         <v>0.016298878313288401</v>
@@ -2900,19 +2900,19 @@
         <v>88382.733891274969</v>
       </c>
       <c r="D64">
-        <v>0.46146914333885641</v>
+        <v>0.46114938519229087</v>
       </c>
       <c r="E64">
-        <v>0.53853085666114353</v>
+        <v>0.53885061480770902</v>
       </c>
       <c r="F64">
         <v>0.33926339350600271</v>
       </c>
       <c r="G64">
-        <v>0.2114182727246301</v>
+        <v>0.21144734164704521</v>
       </c>
       <c r="H64">
-        <v>0.43562687131188049</v>
+        <v>0.43559780238946538</v>
       </c>
       <c r="I64">
         <v>0.013691462457486699</v>
@@ -2950,10 +2950,10 @@
         <v>91771.875217783483</v>
       </c>
       <c r="D65">
-        <v>0.51688855299110514</v>
+        <v>0.51723736992035352</v>
       </c>
       <c r="E65">
-        <v>0.48311144700889491</v>
+        <v>0.48276263007964648</v>
       </c>
       <c r="F65">
         <v>0.14519504679960471</v>
@@ -3000,16 +3000,16 @@
         <v>96878.254772614964</v>
       </c>
       <c r="D66">
-        <v>0.44619498866344981</v>
+        <v>0.44616592058601251</v>
       </c>
       <c r="E66">
-        <v>0.55380501133655025</v>
+        <v>0.55383407941398755</v>
       </c>
       <c r="F66">
-        <v>0.34527062380094181</v>
+        <v>0.34524155572350451</v>
       </c>
       <c r="G66">
-        <v>0.20894134061973141</v>
+        <v>0.20897040869716879</v>
       </c>
       <c r="H66">
         <v>0.43311435381663849</v>
@@ -3050,31 +3050,31 @@
         <v>102911.3571173894</v>
       </c>
       <c r="D67">
-        <v>0.45222522601087178</v>
+        <v>0.45225429493328678</v>
       </c>
       <c r="E67">
-        <v>0.54777477398912822</v>
+        <v>0.54774570506671316</v>
       </c>
       <c r="F67">
-        <v>0.37754716432661839</v>
+        <v>0.3776053021714485</v>
       </c>
       <c r="G67">
-        <v>0.23903374901892391</v>
+        <v>0.2390046800965088</v>
       </c>
       <c r="H67">
-        <v>0.37013458911078168</v>
+        <v>0.37010552018836662</v>
       </c>
       <c r="I67">
         <v>0.0132844975436761</v>
       </c>
       <c r="J67">
-        <v>0.58666217437984214</v>
+        <v>0.58669212731883891</v>
       </c>
       <c r="K67">
         <v>0.0146169445167938</v>
       </c>
       <c r="L67">
-        <v>0.38206323537207371</v>
+        <v>0.38203328243307683</v>
       </c>
       <c r="M67">
         <v>0.016657645709721999</v>
@@ -3100,31 +3100,31 @@
         <v>108408.6023139552</v>
       </c>
       <c r="D68">
-        <v>0.43241671995814202</v>
+        <v>0.43244578803557931</v>
       </c>
       <c r="E68">
-        <v>0.5675832800418581</v>
+        <v>0.56755421196442069</v>
       </c>
       <c r="F68">
-        <v>0.32704493924771821</v>
+        <v>0.32698680309284339</v>
       </c>
       <c r="G68">
         <v>0.1988547177489681</v>
       </c>
       <c r="H68">
-        <v>0.46317074588686702</v>
+        <v>0.46322888204174179</v>
       </c>
       <c r="I68">
         <v>0.0109295971164467</v>
       </c>
       <c r="J68">
-        <v>0.50728969492866893</v>
+        <v>0.50723142020316814</v>
       </c>
       <c r="K68">
         <v>0.0118872263228318</v>
       </c>
       <c r="L68">
-        <v>0.46725873842773752</v>
+        <v>0.46731701315323831</v>
       </c>
       <c r="M68">
         <v>0.0135643403102671</v>
@@ -3159,22 +3159,22 @@
         <v>0.37949478212842652</v>
       </c>
       <c r="G69">
-        <v>0.2233946687596291</v>
+        <v>0.2234237376820441</v>
       </c>
       <c r="H69">
-        <v>0.38333187988721262</v>
+        <v>0.38330281096479751</v>
       </c>
       <c r="I69">
         <v>0.013778669224731799</v>
       </c>
       <c r="J69">
-        <v>0.58345767613066535</v>
+        <v>0.58348594031102907</v>
       </c>
       <c r="K69">
         <v>0.014320582595051401</v>
       </c>
       <c r="L69">
-        <v>0.38540856310290011</v>
+        <v>0.38538029892253639</v>
       </c>
       <c r="M69">
         <v>0.016813178147981101</v>
@@ -3200,31 +3200,31 @@
         <v>120765.5458258241</v>
       </c>
       <c r="D70">
-        <v>0.4656415324690425</v>
+        <v>0.46567060054647991</v>
       </c>
       <c r="E70">
-        <v>0.5343584675309575</v>
+        <v>0.53432939945352009</v>
       </c>
       <c r="F70">
-        <v>0.37204232312074881</v>
+        <v>0.37207139119818622</v>
       </c>
       <c r="G70">
         <v>0.220103482355677</v>
       </c>
       <c r="H70">
-        <v>0.3954421254578222</v>
+        <v>0.39541305738038479</v>
       </c>
       <c r="I70">
         <v>0.012412069065752001</v>
       </c>
       <c r="J70">
-        <v>0.57125831717558362</v>
+        <v>0.5712539133570842</v>
       </c>
       <c r="K70">
         <v>0.015051783639086699</v>
       </c>
       <c r="L70">
-        <v>0.39761470454108389</v>
+        <v>0.39761910835958331</v>
       </c>
       <c r="M70">
         <v>0.0160751946299077</v>
@@ -3250,31 +3250,31 @@
         <v>126842.3743934134</v>
       </c>
       <c r="D71">
-        <v>0.46053893782157501</v>
+        <v>0.46048079997674479</v>
       </c>
       <c r="E71">
-        <v>0.53946106217842504</v>
+        <v>0.53951920002325515</v>
       </c>
       <c r="F71">
-        <v>0.36498938984331852</v>
+        <v>0.36496032092090352</v>
       </c>
       <c r="G71">
-        <v>0.21403447574198431</v>
+        <v>0.2140054068195692</v>
       </c>
       <c r="H71">
-        <v>0.41056946019011081</v>
+        <v>0.41062759803494092</v>
       </c>
       <c r="I71">
         <v>0.0104066742245865</v>
       </c>
       <c r="J71">
-        <v>0.56411603720520909</v>
+        <v>0.56409046464089763</v>
       </c>
       <c r="K71">
         <v>0.013688800795690599</v>
       </c>
       <c r="L71">
-        <v>0.40780353663644392</v>
+        <v>0.40782910920075538</v>
       </c>
       <c r="M71">
         <v>0.0143916253535175</v>
@@ -3309,22 +3309,22 @@
         <v>0.3901808034416604</v>
       </c>
       <c r="G72">
-        <v>0.2319051217952445</v>
+        <v>0.2319341898726818</v>
       </c>
       <c r="H72">
-        <v>0.36628684378815191</v>
+        <v>0.36625777571071449</v>
       </c>
       <c r="I72">
         <v>0.0116272309749433</v>
       </c>
       <c r="J72">
-        <v>0.61026962870298129</v>
+        <v>0.6102979938515013</v>
       </c>
       <c r="K72">
         <v>0.014014751277438</v>
       </c>
       <c r="L72">
-        <v>0.36007163019256738</v>
+        <v>0.36004326504404749</v>
       </c>
       <c r="M72">
         <v>0.015643989762650402</v>
@@ -3356,10 +3356,10 @@
         <v>0.55941515028196043</v>
       </c>
       <c r="F73">
-        <v>0.44500319748851808</v>
+        <v>0.44503226556595549</v>
       </c>
       <c r="G73">
-        <v>0.25149700598802388</v>
+        <v>0.25146793791058658</v>
       </c>
       <c r="H73">
         <v>0.29134934015464209</v>
@@ -3450,16 +3450,16 @@
         <v>155505.02868655889</v>
       </c>
       <c r="D75">
-        <v>0.47442009185512468</v>
+        <v>0.47439102377768733</v>
       </c>
       <c r="E75">
-        <v>0.52557990814487532</v>
+        <v>0.52560897622231262</v>
       </c>
       <c r="F75">
-        <v>0.40811580722051038</v>
+        <v>0.40808673914307309</v>
       </c>
       <c r="G75">
-        <v>0.2310330794721237</v>
+        <v>0.23106214754956109</v>
       </c>
       <c r="H75">
         <v>0.34864252078367541</v>
@@ -3500,16 +3500,16 @@
         <v>163173.60307385691</v>
       </c>
       <c r="D76">
-        <v>0.47539315717566349</v>
+        <v>0.47542222609807849</v>
       </c>
       <c r="E76">
-        <v>0.52460684282433645</v>
+        <v>0.52457777390192151</v>
       </c>
       <c r="F76">
-        <v>0.41106363187116651</v>
+        <v>0.41115083863841168</v>
       </c>
       <c r="G76">
-        <v>0.23106886427720119</v>
+        <v>0.23098165750995611</v>
       </c>
       <c r="H76">
         <v>0.34746082962704572</v>
@@ -3556,10 +3556,10 @@
         <v>0.50662752165571767</v>
       </c>
       <c r="F77">
-        <v>0.4248008836695541</v>
+        <v>0.42474274751467939</v>
       </c>
       <c r="G77">
-        <v>0.23981163885820589</v>
+        <v>0.2398697750130806</v>
       </c>
       <c r="H77">
         <v>0.32501017382710312</v>
@@ -3656,13 +3656,13 @@
         <v>0.49255857217603632</v>
       </c>
       <c r="F79">
-        <v>0.43948026277542002</v>
+        <v>0.43945119469798272</v>
       </c>
       <c r="G79">
         <v>0.25568280913900349</v>
       </c>
       <c r="H79">
-        <v>0.29553514330562181</v>
+        <v>0.29556421138305911</v>
       </c>
       <c r="I79">
         <v>0.0093017847799547002</v>
@@ -3706,13 +3706,13 @@
         <v>0.49422981890061329</v>
       </c>
       <c r="F80">
-        <v>0.43754542019127352</v>
+        <v>0.43757448911368862</v>
       </c>
       <c r="G80">
         <v>0.26763756867532917</v>
       </c>
       <c r="H80">
-        <v>0.28464288828813122</v>
+        <v>0.28461381936571611</v>
       </c>
       <c r="I80">
         <v>0.010174122845266099</v>
